--- a/Proximab.xlsx
+++ b/Proximab.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/31031dea7aa373a1/Belgeler/Arduino/Pangolin/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/31031dea7aa373a1/Belgeler/Arduino/Proximab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{50160C59-8F57-4107-827B-BBF55579F6E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2048466B-38D7-4393-9D68-316E27A21420}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{50160C59-8F57-4107-827B-BBF55579F6E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{23516467-C0EF-4099-B3E3-19D86B47987C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="183">
   <si>
     <t xml:space="preserve">Enter </t>
   </si>
@@ -604,6 +604,9 @@
   </si>
   <si>
     <t xml:space="preserve">Sue To  Start Calib? </t>
+  </si>
+  <si>
+    <t>Ser: 115200 baud NL&amp;CR</t>
   </si>
 </sst>
 </file>
@@ -4891,7 +4894,7 @@
   <dimension ref="B2:R35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5884,6 +5887,9 @@
       </c>
       <c r="E26" s="5" t="s">
         <v>162</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Proximab.xlsx
+++ b/Proximab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/31031dea7aa373a1/Belgeler/Arduino/Proximab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{50160C59-8F57-4107-827B-BBF55579F6E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{23516467-C0EF-4099-B3E3-19D86B47987C}"/>
+  <xr:revisionPtr revIDLastSave="507" documentId="13_ncr:1_{50160C59-8F57-4107-827B-BBF55579F6E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E9377A87-C5B6-414C-9E66-2D35B45BEC48}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Menu3" sheetId="4" r:id="rId3"/>
     <sheet name="MenuF" sheetId="5" r:id="rId4"/>
     <sheet name="UI" sheetId="3" r:id="rId5"/>
+    <sheet name="Key" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="211">
   <si>
     <t xml:space="preserve">Enter </t>
   </si>
@@ -608,12 +609,96 @@
   <si>
     <t>Ser: 115200 baud NL&amp;CR</t>
   </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>Adc</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>Kohm</t>
+  </si>
+  <si>
+    <t>adc</t>
+  </si>
+  <si>
+    <t>S1 S2</t>
+  </si>
+  <si>
+    <t>S1 S3</t>
+  </si>
+  <si>
+    <t>S1 S4</t>
+  </si>
+  <si>
+    <t>S2 S3</t>
+  </si>
+  <si>
+    <t>S2 S4</t>
+  </si>
+  <si>
+    <t>S3 S4</t>
+  </si>
+  <si>
+    <t>S1 S2 S3</t>
+  </si>
+  <si>
+    <t>S1 S2 S4</t>
+  </si>
+  <si>
+    <t>S2 S3 S4</t>
+  </si>
+  <si>
+    <t>S1 S3 S4</t>
+  </si>
+  <si>
+    <t>Fix R1</t>
+  </si>
+  <si>
+    <t>Fix R6</t>
+  </si>
+  <si>
+    <t>Diff</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>mVolt</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,6 +717,19 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -801,7 +899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -847,6 +945,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -870,6 +975,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7FE3028-44F3-4774-9F33-4D89D4C0C53B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8477250" y="466725"/>
+          <a:ext cx="2286000" cy="5686425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1231,14 +1402,14 @@
       <c r="C4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="29" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="30"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="21"/>
       <c r="I4" s="22" t="s">
         <v>3</v>
@@ -1252,15 +1423,15 @@
       <c r="S4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="T4" s="31" t="s">
+      <c r="T4" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="32"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="37"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -2407,7 +2578,7 @@
   <dimension ref="A2:AC44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2475,14 +2646,14 @@
       <c r="C4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="29" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="30"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="21"/>
       <c r="I4" s="22" t="s">
         <v>3</v>
@@ -2505,15 +2676,15 @@
       <c r="S4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="T4" s="31" t="s">
+      <c r="T4" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="32"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="37"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -3596,8 +3767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E648633-5BB0-4FFA-AB25-4F6B5B222844}">
   <dimension ref="A2:AC44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4:P8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3665,14 +3836,14 @@
       <c r="C4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="29" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="30"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="21"/>
       <c r="I4" s="22" t="s">
         <v>3</v>
@@ -3695,15 +3866,15 @@
       <c r="S4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="T4" s="31" t="s">
+      <c r="T4" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="32"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="37"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -4893,7 +5064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F7F362-1500-415B-8742-4DD6E6C5F9F7}">
   <dimension ref="B2:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -6335,4 +6506,525 @@
     <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;8&amp;K000000Classified as Internal</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39401F82-8C98-40FD-BFA6-89650728085B}">
+  <dimension ref="K1:U34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB24" sqref="AB24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="10" width="2.7109375" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" style="31" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="29" customWidth="1"/>
+    <col min="14" max="14" width="6.42578125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="33" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="3"/>
+    <col min="18" max="18" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="O1" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="P1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="R1" s="5">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>193</v>
+      </c>
+      <c r="U1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="O2" s="33">
+        <v>5000</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1024</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="R2" s="5">
+        <v>22</v>
+      </c>
+      <c r="S2" t="s">
+        <v>193</v>
+      </c>
+      <c r="U2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="R3" s="5">
+        <v>47</v>
+      </c>
+      <c r="S3" t="s">
+        <v>193</v>
+      </c>
+      <c r="U3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="R4" s="5">
+        <v>10</v>
+      </c>
+      <c r="S4" t="s">
+        <v>193</v>
+      </c>
+      <c r="U4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="R5" s="5">
+        <v>47</v>
+      </c>
+      <c r="S5" t="s">
+        <v>193</v>
+      </c>
+      <c r="U5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>193</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="T9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <v>22</v>
+      </c>
+      <c r="T10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <v>22</v>
+      </c>
+      <c r="T11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <v>39</v>
+      </c>
+      <c r="T12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="O13" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="P13" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="S13">
+        <v>10</v>
+      </c>
+      <c r="T13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>204</v>
+      </c>
+      <c r="M14" s="29">
+        <f>P2*(0+R6)/(R1+R2+R3+R4+R5+R6)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="O14" s="33">
+        <f>(O2/P2)*M14</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="29">
+        <f t="shared" ref="P14:P16" si="0">M14-M13</f>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>47</v>
+      </c>
+      <c r="T14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>203</v>
+      </c>
+      <c r="M15" s="29">
+        <f>P2*(0+R6)/(R1+R2+R3+R4+R5+R6)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="O15" s="33">
+        <f>(O2/P2)*M15</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="12:21" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>200</v>
+      </c>
+      <c r="M16" s="29">
+        <f>P2*(0+R6)/(R1+R2+R3+R4+R5+R6)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="O16" s="33">
+        <f>(O2/P2)*M16</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L17" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="M17" s="30">
+        <f>P2*(R4+R6)/(R1+R2+R3+R4+R6)</f>
+        <v>101.38613861386139</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="O17" s="30">
+        <f>(O2/P2)*M17</f>
+        <v>495.04950495049508</v>
+      </c>
+      <c r="P17" s="30">
+        <f>M17-M16</f>
+        <v>101.38613861386139</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>197</v>
+      </c>
+      <c r="M18" s="29">
+        <f>P2*(R4+R6)/(R1+R3+R4+R6)</f>
+        <v>129.62025316455697</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="O18" s="33">
+        <f>(O2/P2)*M18</f>
+        <v>632.91139240506334</v>
+      </c>
+      <c r="P18" s="30">
+        <f t="shared" ref="P18:P28" si="1">M18-M17</f>
+        <v>28.23411455069558</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" s="29">
+        <f>P2*(R4+R6)/(R1+R2+R4+R6)</f>
+        <v>189.62962962962962</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="O19" s="33">
+        <f>(O2/P2)*M19</f>
+        <v>925.92592592592587</v>
+      </c>
+      <c r="P19" s="29">
+        <f t="shared" si="1"/>
+        <v>60.009376465072648</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L20" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="M20" s="30">
+        <f>P2*(R5+R6)/(R1+R2+R3+R5+R6)</f>
+        <v>348.75362318840581</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="O20" s="30">
+        <f>(O2/P2)*M20</f>
+        <v>1702.8985507246377</v>
+      </c>
+      <c r="P20" s="30">
+        <f t="shared" si="1"/>
+        <v>159.12399355877619</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="21" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L21" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="M21" s="30">
+        <f>P2*(R4+R5+R6)/(R1+R2+R3+R4+R5+R6)</f>
+        <v>394.37837837837839</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="O21" s="30">
+        <f>(O2/P2)*M21</f>
+        <v>1925.6756756756756</v>
+      </c>
+      <c r="P21" s="30">
+        <f t="shared" si="1"/>
+        <v>45.624755189972575</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="22" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L22" t="s">
+        <v>202</v>
+      </c>
+      <c r="M22" s="29">
+        <f>P2*(R4+R6)/(R1+R4+R6)</f>
+        <v>320</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="O22" s="33">
+        <f>(O2/P2)*M22</f>
+        <v>1562.5</v>
+      </c>
+      <c r="P22" s="30">
+        <f t="shared" si="1"/>
+        <v>-74.378378378378386</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M23" s="29">
+        <f>P2*(R5+R6)/(R1+R3+R5+R6)</f>
+        <v>414.89655172413791</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="O23" s="33">
+        <f>(O2/P2)*M23</f>
+        <v>2025.8620689655172</v>
+      </c>
+      <c r="P23" s="29">
+        <f t="shared" si="1"/>
+        <v>94.896551724137908</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="24" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L24" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="M24" s="30">
+        <f>P2*(R4+R5+R6)/(R1+R3+R4+R5+R6)</f>
+        <v>463.23809523809524</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="O24" s="30">
+        <f>(O2/P2)*M24</f>
+        <v>2261.9047619047619</v>
+      </c>
+      <c r="P24" s="30">
+        <f t="shared" si="1"/>
+        <v>48.341543513957333</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="25" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>195</v>
+      </c>
+      <c r="M25" s="29">
+        <f>P2*(R4+R5+R6)/(R1+R4+R5+R6)</f>
+        <v>738.83544303797464</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="O25" s="33">
+        <f>(O2/P2)*M25</f>
+        <v>3607.5949367088606</v>
+      </c>
+      <c r="P25" s="30">
+        <f t="shared" si="1"/>
+        <v>275.5973477998794</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="26" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>198</v>
+      </c>
+      <c r="M26" s="29">
+        <f>P2*(R5+R6)/(R1+R2+R5+R6)</f>
+        <v>528.87912087912093</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="O26" s="33">
+        <f>(O2/P2)*M26</f>
+        <v>2582.4175824175827</v>
+      </c>
+      <c r="P26" s="29">
+        <f t="shared" si="1"/>
+        <v>-209.95632215885371</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="27" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L27" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="M27" s="30">
+        <f>P2*(R4+R5+R6)/(R1+R2+R4+R5+R6)</f>
+        <v>577.90099009900985</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="O27" s="30">
+        <f>(O2/P2)*M27</f>
+        <v>2821.7821782178216</v>
+      </c>
+      <c r="P27" s="30">
+        <f t="shared" si="1"/>
+        <v>49.021869219888913</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="28" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>201</v>
+      </c>
+      <c r="M28" s="29">
+        <f>P2*(R5+R6)/(R1+R5+R6)</f>
+        <v>697.50724637681162</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="O28" s="33">
+        <f>(O2/P2)*M28</f>
+        <v>3405.7971014492755</v>
+      </c>
+      <c r="P28" s="30">
+        <f t="shared" si="1"/>
+        <v>119.60625627780178</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="32" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="P32" s="29"/>
+    </row>
+    <row r="34" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P34" s="29"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Proximab.xlsx
+++ b/Proximab.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/31031dea7aa373a1/Belgeler/Arduino/Proximab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="507" documentId="13_ncr:1_{50160C59-8F57-4107-827B-BBF55579F6E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E9377A87-C5B6-414C-9E66-2D35B45BEC48}"/>
+  <xr:revisionPtr revIDLastSave="528" documentId="13_ncr:1_{50160C59-8F57-4107-827B-BBF55579F6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A05555EA-835F-4BF3-AAF6-9A033C9F4718}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="215">
   <si>
     <t xml:space="preserve">Enter </t>
   </si>
@@ -692,6 +692,18 @@
   </si>
   <si>
     <t>Measured</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mains EU/US Select  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  220V / 50 Hz  ?   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  110V / 60 Hz  ?   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mains Updated !   </t>
   </si>
 </sst>
 </file>
@@ -1346,34 +1358,34 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="1"/>
+    <col min="11" max="11" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="5" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" customWidth="1"/>
+    <col min="18" max="18" width="18.5546875" customWidth="1"/>
     <col min="19" max="19" width="14" style="2" customWidth="1"/>
-    <col min="20" max="20" width="16.28515625" customWidth="1"/>
-    <col min="21" max="21" width="8.85546875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="8.140625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="16.85546875" style="2" customWidth="1"/>
-    <col min="26" max="29" width="9.140625" style="2"/>
+    <col min="20" max="20" width="16.33203125" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="8.109375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="14.5546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="16.88671875" style="2" customWidth="1"/>
+    <col min="26" max="29" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R2" s="6" t="s">
         <v>46</v>
       </c>
@@ -1391,11 +1403,11 @@
       </c>
       <c r="Y2" s="8"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R3" s="9"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1433,7 +1445,7 @@
       <c r="Y4" s="36"/>
       <c r="Z4" s="37"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>0</v>
       </c>
@@ -1469,7 +1481,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N6">
         <v>1</v>
       </c>
@@ -1496,7 +1508,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1545,7 +1557,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="3"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1567,7 +1579,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>36</v>
       </c>
@@ -1615,7 +1627,7 @@
       <c r="U9" s="13"/>
       <c r="V9" s="10"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>40</v>
       </c>
@@ -1663,7 +1675,7 @@
       <c r="U10" s="15"/>
       <c r="V10" s="16"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>44</v>
       </c>
@@ -1706,7 +1718,7 @@
       <c r="R11" s="9"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>48</v>
       </c>
@@ -1757,7 +1769,7 @@
       </c>
       <c r="Y12" s="8"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>52</v>
       </c>
@@ -1816,7 +1828,7 @@
       </c>
       <c r="Y13" s="12"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>56</v>
       </c>
@@ -1875,7 +1887,7 @@
       </c>
       <c r="Y14" s="12"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>60</v>
       </c>
@@ -1925,7 +1937,7 @@
       </c>
       <c r="Y15" s="12"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R16" s="9" t="s">
         <v>81</v>
       </c>
@@ -1945,7 +1957,7 @@
       </c>
       <c r="Y16" s="12"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1995,7 +2007,7 @@
       </c>
       <c r="Y17" s="12"/>
     </row>
-    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="3"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -2027,7 +2039,7 @@
       </c>
       <c r="Y18" s="12"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>68</v>
       </c>
@@ -2086,7 +2098,7 @@
       </c>
       <c r="Y19" s="12"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>72</v>
       </c>
@@ -2131,7 +2143,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="N21" t="s">
         <v>40</v>
       </c>
@@ -2152,7 +2164,7 @@
       <c r="X21" s="19"/>
       <c r="Y21" s="12"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="N22" t="s">
         <v>40</v>
       </c>
@@ -2173,7 +2185,7 @@
       <c r="X22" s="20"/>
       <c r="Y22" s="17"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -2218,7 +2230,7 @@
       </c>
       <c r="Y23" s="8"/>
     </row>
-    <row r="24" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="3"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2250,7 +2262,7 @@
       </c>
       <c r="Y24" s="12"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>100</v>
       </c>
@@ -2303,7 +2315,7 @@
       </c>
       <c r="Y25" s="12"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>104</v>
       </c>
@@ -2337,7 +2349,7 @@
       <c r="X26" s="9"/>
       <c r="Y26" s="12"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>108</v>
       </c>
@@ -2391,7 +2403,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>112</v>
       </c>
@@ -2439,7 +2451,7 @@
       <c r="X28" s="19"/>
       <c r="Y28" s="12"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>116</v>
       </c>
@@ -2481,7 +2493,7 @@
       <c r="X29" s="20"/>
       <c r="Y29" s="17"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="K30" t="s">
@@ -2499,7 +2511,7 @@
       <c r="X30" s="9"/>
       <c r="Y30" s="12"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="K31" t="s">
         <v>52</v>
       </c>
@@ -2507,7 +2519,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="K32" t="s">
         <v>53</v>
       </c>
@@ -2515,7 +2527,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:21" x14ac:dyDescent="0.3">
       <c r="K33" t="s">
         <v>54</v>
       </c>
@@ -2523,37 +2535,37 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="11:21" x14ac:dyDescent="0.3">
       <c r="U38" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="11:21" x14ac:dyDescent="0.3">
       <c r="U39" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="11:21" x14ac:dyDescent="0.3">
       <c r="U40" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="11:21" x14ac:dyDescent="0.3">
       <c r="U41" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="11:21" x14ac:dyDescent="0.3">
       <c r="U42" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="11:21" x14ac:dyDescent="0.3">
       <c r="U43" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="11:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="11:21" x14ac:dyDescent="0.3">
       <c r="U44" s="9" t="s">
         <v>84</v>
       </c>
@@ -2581,34 +2593,34 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="1"/>
+    <col min="11" max="11" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="5" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" customWidth="1"/>
+    <col min="18" max="18" width="18.5546875" customWidth="1"/>
     <col min="19" max="19" width="14" style="2" customWidth="1"/>
-    <col min="20" max="20" width="16.28515625" customWidth="1"/>
-    <col min="21" max="21" width="8.85546875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="8.140625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="16.85546875" style="2" customWidth="1"/>
-    <col min="26" max="29" width="9.140625" style="2"/>
+    <col min="20" max="20" width="16.33203125" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="8.109375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="14.5546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="16.88671875" style="2" customWidth="1"/>
+    <col min="26" max="29" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R2" s="6" t="s">
         <v>46</v>
       </c>
@@ -2626,7 +2638,7 @@
       </c>
       <c r="Y2" s="8"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N3" t="s">
         <v>40</v>
       </c>
@@ -2639,7 +2651,7 @@
       <c r="R3" s="9"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -2686,7 +2698,7 @@
       <c r="Y4" s="36"/>
       <c r="Z4" s="37"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>0</v>
       </c>
@@ -2731,7 +2743,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N6" t="s">
         <v>40</v>
       </c>
@@ -2761,7 +2773,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2812,7 +2824,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="3"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -2834,7 +2846,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>36</v>
       </c>
@@ -2879,7 +2891,7 @@
       <c r="U9" s="13"/>
       <c r="V9" s="10"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>40</v>
       </c>
@@ -2918,11 +2930,11 @@
       <c r="U10" s="15"/>
       <c r="V10" s="16"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R11" s="9"/>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R12" s="6" t="s">
         <v>46</v>
       </c>
@@ -2940,7 +2952,7 @@
       </c>
       <c r="Y12" s="8"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N13" t="s">
         <v>40</v>
       </c>
@@ -2969,7 +2981,7 @@
       </c>
       <c r="Y13" s="12"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N14" t="s">
         <v>40</v>
       </c>
@@ -2998,7 +3010,7 @@
       </c>
       <c r="Y14" s="12"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R15" s="9" t="s">
         <v>80</v>
       </c>
@@ -3018,7 +3030,7 @@
       </c>
       <c r="Y15" s="12"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -3077,7 +3089,7 @@
       </c>
       <c r="Y16" s="12"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D17" s="3"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -3109,7 +3121,7 @@
       </c>
       <c r="Y17" s="12"/>
     </row>
-    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>68</v>
       </c>
@@ -3159,7 +3171,7 @@
       </c>
       <c r="Y18" s="12"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>72</v>
       </c>
@@ -3218,7 +3230,7 @@
       </c>
       <c r="Y19" s="12"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>76</v>
       </c>
@@ -3275,7 +3287,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>80</v>
       </c>
@@ -3320,7 +3332,7 @@
       <c r="X21" s="19"/>
       <c r="Y21" s="12"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>84</v>
       </c>
@@ -3362,7 +3374,7 @@
       <c r="X22" s="20"/>
       <c r="Y22" s="17"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>88</v>
       </c>
@@ -3410,7 +3422,7 @@
       </c>
       <c r="Y23" s="8"/>
     </row>
-    <row r="24" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>92</v>
       </c>
@@ -3460,7 +3472,7 @@
       </c>
       <c r="Y24" s="12"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="R25" s="9" t="s">
         <v>86</v>
       </c>
@@ -3480,7 +3492,7 @@
       </c>
       <c r="Y25" s="12"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="R26" s="9"/>
       <c r="S26" s="12"/>
       <c r="T26" s="11"/>
@@ -3490,7 +3502,7 @@
       <c r="X26" s="9"/>
       <c r="Y26" s="12"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="N27" t="s">
         <v>62</v>
       </c>
@@ -3514,7 +3526,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -3562,7 +3574,7 @@
       <c r="X28" s="19"/>
       <c r="Y28" s="12"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D29" s="3"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -3577,7 +3589,7 @@
       <c r="X29" s="20"/>
       <c r="Y29" s="17"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>100</v>
       </c>
@@ -3617,7 +3629,7 @@
       <c r="X30" s="9"/>
       <c r="Y30" s="12"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>104</v>
       </c>
@@ -3646,13 +3658,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:21" x14ac:dyDescent="0.3">
       <c r="C34" s="4"/>
       <c r="D34" s="3"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:21" x14ac:dyDescent="0.3">
       <c r="D35" s="3"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -3663,7 +3675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:21" x14ac:dyDescent="0.3">
       <c r="F36" s="4"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -3674,7 +3686,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:21" x14ac:dyDescent="0.3">
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="K37" t="s">
@@ -3684,7 +3696,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:21" x14ac:dyDescent="0.3">
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="K38" t="s">
@@ -3697,7 +3709,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:21" x14ac:dyDescent="0.3">
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="K39" t="s">
@@ -3710,7 +3722,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:21" x14ac:dyDescent="0.3">
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="K40" t="s">
@@ -3723,7 +3735,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:21" x14ac:dyDescent="0.3">
       <c r="K41" t="s">
         <v>54</v>
       </c>
@@ -3734,17 +3746,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:21" x14ac:dyDescent="0.3">
       <c r="U42" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:21" x14ac:dyDescent="0.3">
       <c r="U43" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:21" x14ac:dyDescent="0.3">
       <c r="U44" s="9" t="s">
         <v>84</v>
       </c>
@@ -3771,34 +3783,34 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="3.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" customWidth="1"/>
+    <col min="8" max="8" width="3.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="1"/>
+    <col min="11" max="11" width="10.5546875" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
+    <col min="16" max="16" width="4.88671875" style="5" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" customWidth="1"/>
+    <col min="18" max="18" width="18.5546875" customWidth="1"/>
     <col min="19" max="19" width="14" style="2" customWidth="1"/>
-    <col min="20" max="20" width="16.28515625" customWidth="1"/>
-    <col min="21" max="21" width="8.85546875" style="2" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" style="2" customWidth="1"/>
-    <col min="23" max="23" width="8.140625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="16.85546875" style="2" customWidth="1"/>
-    <col min="26" max="29" width="9.140625" style="2"/>
+    <col min="20" max="20" width="16.33203125" customWidth="1"/>
+    <col min="21" max="21" width="8.88671875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="8.109375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="14.5546875" style="2" customWidth="1"/>
+    <col min="25" max="25" width="16.88671875" style="2" customWidth="1"/>
+    <col min="26" max="29" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="R2" s="6" t="s">
         <v>46</v>
       </c>
@@ -3816,7 +3828,7 @@
       </c>
       <c r="Y2" s="8"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N3" t="s">
         <v>40</v>
       </c>
@@ -3829,7 +3841,7 @@
       <c r="R3" s="9"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -3876,7 +3888,7 @@
       <c r="Y4" s="36"/>
       <c r="Z4" s="37"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>0</v>
       </c>
@@ -3921,7 +3933,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N6" t="s">
         <v>40</v>
       </c>
@@ -3951,7 +3963,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4011,7 +4023,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="3"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -4043,7 +4055,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>36</v>
       </c>
@@ -4090,7 +4102,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>40</v>
       </c>
@@ -4133,7 +4145,7 @@
       <c r="R10" s="9"/>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N11" t="s">
         <v>40</v>
       </c>
@@ -4152,14 +4164,14 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="T12" s="11" t="s">
         <v>72</v>
       </c>
       <c r="U12" s="13"/>
       <c r="V12" s="10"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N13" t="s">
         <v>40</v>
       </c>
@@ -4175,7 +4187,7 @@
       <c r="U13" s="15"/>
       <c r="V13" s="16"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N14" t="s">
         <v>40</v>
       </c>
@@ -4186,7 +4198,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -4243,7 +4255,7 @@
       </c>
       <c r="Y16" s="8"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D17" s="3"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -4275,7 +4287,7 @@
       </c>
       <c r="Y17" s="12"/>
     </row>
-    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>68</v>
       </c>
@@ -4325,7 +4337,7 @@
       </c>
       <c r="Y18" s="12"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>72</v>
       </c>
@@ -4384,7 +4396,7 @@
       </c>
       <c r="Y19" s="12"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>76</v>
       </c>
@@ -4443,7 +4455,7 @@
       </c>
       <c r="Y20" s="12"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>80</v>
       </c>
@@ -4496,7 +4508,7 @@
       </c>
       <c r="Y21" s="12"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>84</v>
       </c>
@@ -4546,7 +4558,7 @@
       </c>
       <c r="Y22" s="12"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>88</v>
       </c>
@@ -4596,7 +4608,7 @@
       </c>
       <c r="Y23" s="12"/>
     </row>
-    <row r="24" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>92</v>
       </c>
@@ -4644,7 +4656,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="R25" s="9"/>
       <c r="S25" s="12"/>
       <c r="T25" s="11" t="s">
@@ -4656,7 +4668,7 @@
       <c r="X25" s="19"/>
       <c r="Y25" s="12"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="R26" s="14"/>
       <c r="S26" s="17"/>
       <c r="T26" s="25" t="s">
@@ -4668,7 +4680,7 @@
       <c r="X26" s="20"/>
       <c r="Y26" s="17"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="N27" t="s">
         <v>62</v>
       </c>
@@ -4676,7 +4688,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -4714,12 +4726,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D29" s="3"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>100</v>
       </c>
@@ -4759,7 +4771,7 @@
       <c r="X30" s="9"/>
       <c r="Y30" s="12"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>104</v>
       </c>
@@ -4804,7 +4816,7 @@
       </c>
       <c r="Y31" s="8"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="R32" s="9" t="s">
         <v>85</v>
       </c>
@@ -4824,7 +4836,7 @@
       </c>
       <c r="Y32" s="12"/>
     </row>
-    <row r="33" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:25" x14ac:dyDescent="0.3">
       <c r="R33" s="9" t="s">
         <v>86</v>
       </c>
@@ -4844,7 +4856,7 @@
       </c>
       <c r="Y33" s="12"/>
     </row>
-    <row r="34" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C34" s="4"/>
       <c r="D34" s="3"/>
       <c r="G34" s="1"/>
@@ -4858,7 +4870,7 @@
       <c r="X34" s="9"/>
       <c r="Y34" s="12"/>
     </row>
-    <row r="35" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:25" x14ac:dyDescent="0.3">
       <c r="D35" s="3"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -4891,7 +4903,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:25" x14ac:dyDescent="0.3">
       <c r="F36" s="4"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -4918,7 +4930,7 @@
       <c r="X36" s="19"/>
       <c r="Y36" s="12"/>
     </row>
-    <row r="37" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:25" x14ac:dyDescent="0.3">
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="K37" t="s">
@@ -4944,7 +4956,7 @@
       <c r="X37" s="20"/>
       <c r="Y37" s="17"/>
     </row>
-    <row r="38" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:25" x14ac:dyDescent="0.3">
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="K38" t="s">
@@ -4963,7 +4975,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:25" x14ac:dyDescent="0.3">
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="K39" t="s">
@@ -4982,7 +4994,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:25" x14ac:dyDescent="0.3">
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="K40" t="s">
@@ -5001,7 +5013,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:25" x14ac:dyDescent="0.3">
       <c r="K41" t="s">
         <v>54</v>
       </c>
@@ -5018,12 +5030,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:25" x14ac:dyDescent="0.3">
       <c r="U42" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:25" x14ac:dyDescent="0.3">
       <c r="N43" t="s">
         <v>117</v>
       </c>
@@ -5034,7 +5046,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:25" x14ac:dyDescent="0.3">
       <c r="N44" t="s">
         <v>118</v>
       </c>
@@ -5062,28 +5074,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F7F362-1500-415B-8742-4DD6E6C5F9F7}">
-  <dimension ref="B2:R35"/>
+  <dimension ref="B2:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="5"/>
-    <col min="3" max="3" width="26.85546875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="3.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="5"/>
+    <col min="3" max="3" width="25.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="15" style="5" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="5" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C2" s="5" t="s">
         <v>145</v>
       </c>
@@ -5133,7 +5146,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>144</v>
       </c>
@@ -5186,7 +5199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>33</v>
       </c>
@@ -5239,7 +5252,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>34</v>
       </c>
@@ -5292,7 +5305,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
@@ -5345,7 +5358,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>108</v>
       </c>
@@ -5398,7 +5411,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>109</v>
       </c>
@@ -5451,7 +5464,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>123</v>
       </c>
@@ -5504,7 +5517,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>124</v>
       </c>
@@ -5557,7 +5570,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
         <v>125</v>
       </c>
@@ -5610,7 +5623,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>137</v>
       </c>
@@ -5663,7 +5676,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
         <v>138</v>
       </c>
@@ -5716,7 +5729,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>139</v>
       </c>
@@ -5769,7 +5782,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="5" t="s">
         <v>140</v>
       </c>
@@ -5822,7 +5835,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>141</v>
       </c>
@@ -5875,7 +5888,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>142</v>
       </c>
@@ -5928,7 +5941,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>143</v>
       </c>
@@ -5981,131 +5994,143 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C22" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C23" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="K24" s="28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C26" s="5" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="J27" s="28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E28" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F26" s="28" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="34" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="6:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F35" s="28" t="s">
+      <c r="G26" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="6:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F33" s="28" t="s">
         <v>173</v>
       </c>
     </row>
@@ -6127,13 +6152,13 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>89</v>
       </c>
@@ -6141,7 +6166,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="E6">
         <v>1</v>
       </c>
@@ -6194,17 +6219,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -6269,7 +6294,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>97</v>
       </c>
@@ -6322,7 +6347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -6381,7 +6406,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -6434,7 +6459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>7</v>
       </c>
@@ -6445,7 +6470,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:18" x14ac:dyDescent="0.3">
       <c r="H17">
         <f>H10-H13</f>
         <v>3</v>
@@ -6491,7 +6516,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="23" spans="8:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="8:18" x14ac:dyDescent="0.3">
       <c r="Q23" t="s">
         <v>105</v>
       </c>
@@ -6512,22 +6537,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39401F82-8C98-40FD-BFA6-89650728085B}">
   <dimension ref="K1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="2.7109375" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" style="31" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="29" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" style="33" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="3"/>
-    <col min="18" max="18" width="9.140625" style="5"/>
+    <col min="1" max="10" width="2.6640625" customWidth="1"/>
+    <col min="11" max="11" width="4.44140625" style="31" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="29" customWidth="1"/>
+    <col min="14" max="14" width="6.44140625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="33" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="3"/>
+    <col min="18" max="18" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="12:21" x14ac:dyDescent="0.3">
       <c r="O1" s="32" t="s">
         <v>209</v>
       </c>
@@ -6547,7 +6572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="12:21" x14ac:dyDescent="0.3">
       <c r="O2" s="33">
         <v>5000</v>
       </c>
@@ -6567,7 +6592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="12:21" x14ac:dyDescent="0.3">
       <c r="P3" s="1"/>
       <c r="Q3" s="3" t="s">
         <v>184</v>
@@ -6582,7 +6607,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="12:21" x14ac:dyDescent="0.3">
       <c r="P4" s="1"/>
       <c r="Q4" s="3" t="s">
         <v>185</v>
@@ -6597,7 +6622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="12:21" x14ac:dyDescent="0.3">
       <c r="P5" s="1"/>
       <c r="Q5" s="3" t="s">
         <v>186</v>
@@ -6612,7 +6637,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="12:21" x14ac:dyDescent="0.3">
       <c r="P6" s="1"/>
       <c r="Q6" s="3" t="s">
         <v>206</v>
@@ -6627,12 +6652,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="12:21" x14ac:dyDescent="0.3">
       <c r="T9" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="12:21" x14ac:dyDescent="0.3">
       <c r="S10">
         <v>22</v>
       </c>
@@ -6640,7 +6665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="12:21" x14ac:dyDescent="0.3">
       <c r="S11">
         <v>22</v>
       </c>
@@ -6648,7 +6673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="12:21" x14ac:dyDescent="0.3">
       <c r="S12">
         <v>39</v>
       </c>
@@ -6656,7 +6681,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="12:21" x14ac:dyDescent="0.3">
       <c r="O13" s="33" t="s">
         <v>209</v>
       </c>
@@ -6673,7 +6698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L14" t="s">
         <v>204</v>
       </c>
@@ -6699,7 +6724,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L15" t="s">
         <v>203</v>
       </c>
@@ -6719,7 +6744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L16" t="s">
         <v>200</v>
       </c>
@@ -6739,7 +6764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L17" s="31" t="s">
         <v>191</v>
       </c>
@@ -6762,7 +6787,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L18" t="s">
         <v>197</v>
       </c>
@@ -6785,7 +6810,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L19" t="s">
         <v>199</v>
       </c>
@@ -6808,7 +6833,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="20" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L20" s="31" t="s">
         <v>190</v>
       </c>
@@ -6831,7 +6856,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="21" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L21" s="31" t="s">
         <v>192</v>
       </c>
@@ -6854,7 +6879,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="22" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L22" t="s">
         <v>202</v>
       </c>
@@ -6877,7 +6902,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L23" t="s">
         <v>196</v>
       </c>
@@ -6900,7 +6925,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="24" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L24" s="31" t="s">
         <v>187</v>
       </c>
@@ -6923,7 +6948,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="25" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L25" t="s">
         <v>195</v>
       </c>
@@ -6946,7 +6971,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="26" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L26" t="s">
         <v>198</v>
       </c>
@@ -6969,7 +6994,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="27" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L27" s="31" t="s">
         <v>189</v>
       </c>
@@ -6992,7 +7017,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="28" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="12:17" x14ac:dyDescent="0.3">
       <c r="L28" t="s">
         <v>201</v>
       </c>
@@ -7015,10 +7040,10 @@
         <v>693</v>
       </c>
     </row>
-    <row r="32" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="12:17" x14ac:dyDescent="0.3">
       <c r="P32" s="29"/>
     </row>
-    <row r="34" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P34" s="29"/>
     </row>
   </sheetData>

--- a/Proximab.xlsx
+++ b/Proximab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/31031dea7aa373a1/Belgeler/Arduino/Proximab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="528" documentId="13_ncr:1_{50160C59-8F57-4107-827B-BBF55579F6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A05555EA-835F-4BF3-AAF6-9A033C9F4718}"/>
+  <xr:revisionPtr revIDLastSave="578" documentId="13_ncr:1_{50160C59-8F57-4107-827B-BBF55579F6E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35413D88-2F00-43DF-B2C4-1E1BDF4E3CD2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="225">
   <si>
     <t xml:space="preserve">Enter </t>
   </si>
@@ -704,6 +704,36 @@
   </si>
   <si>
     <t xml:space="preserve">  Mains Updated !   </t>
+  </si>
+  <si>
+    <t>LOG FILE SIZE MENU</t>
+  </si>
+  <si>
+    <t>Enter -&gt; 1 Mbytes</t>
+  </si>
+  <si>
+    <t>Enter -&gt; 2 Mbytes</t>
+  </si>
+  <si>
+    <t>Enter -&gt; 4 Mbytes</t>
+  </si>
+  <si>
+    <t>Enter -&gt; 500 Kbytes</t>
+  </si>
+  <si>
+    <t>File Size Updated !</t>
+  </si>
+  <si>
+    <t>Enter -&gt; 8 Mbytes</t>
+  </si>
+  <si>
+    <t>Enter -&gt; 16 Mbytes</t>
+  </si>
+  <si>
+    <t>Enter -&gt; 32 Mbytes</t>
+  </si>
+  <si>
+    <t>Sure?  If Yes Enter</t>
   </si>
 </sst>
 </file>
@@ -911,7 +941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -971,6 +1001,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5076,8 +5109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F7F362-1500-415B-8742-4DD6E6C5F9F7}">
   <dimension ref="B2:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5085,14 +5118,13 @@
     <col min="1" max="1" width="3.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="9.109375" style="5"/>
     <col min="3" max="3" width="25.109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" style="5" customWidth="1"/>
+    <col min="4" max="5" width="18" style="5" customWidth="1"/>
+    <col min="6" max="6" width="21" style="5" customWidth="1"/>
     <col min="7" max="7" width="21.109375" style="5" customWidth="1"/>
     <col min="8" max="8" width="14.88671875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="15" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" style="5" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" style="5" customWidth="1"/>
     <col min="12" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
@@ -5995,11 +6027,17 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="C20" s="5" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="C21" s="5" t="s">
         <v>148</v>
       </c>
@@ -6017,6 +6055,9 @@
       </c>
     </row>
     <row r="22" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="C22" s="5" t="s">
         <v>149</v>
       </c>
@@ -6041,11 +6082,17 @@
       <c r="J22" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="K22" s="28" t="s">
+      <c r="K22" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" s="38" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="C23" s="5" t="s">
         <v>150</v>
       </c>
@@ -6063,6 +6110,9 @@
       </c>
     </row>
     <row r="24" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="C24" s="5" t="s">
         <v>147</v>
       </c>
@@ -6077,6 +6127,9 @@
       </c>
     </row>
     <row r="25" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="C25" s="5" t="s">
         <v>146</v>
       </c>
@@ -6103,6 +6156,9 @@
       </c>
     </row>
     <row r="26" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="5" t="s">
+        <v>123</v>
+      </c>
       <c r="C26" s="5" t="s">
         <v>178</v>
       </c>
@@ -6126,6 +6182,41 @@
       </c>
       <c r="J26" s="28" t="s">
         <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="L27" s="38" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
